--- a/UK_CoP_TitleLists/PNAS_Hybrid_scifreeimport.xlsx
+++ b/UK_CoP_TitleLists/PNAS_Hybrid_scifreeimport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/lc2792_bath_ac_uk/Documents/Documents/SciFree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4b02a2393526de/Documents/CoP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5471E1D7-2F13-4B49-871C-A26A4C49B82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C078CFC1-2746-4E8F-AF28-1500EE709B59}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{5471E1D7-2F13-4B49-871C-A26A4C49B82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9BAE39-ED6A-4C62-A6A8-8144028BC6E1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Journal Title</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>1091-6490</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/</t>
   </si>
 </sst>
 </file>
@@ -409,87 +412,87 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1907,7 +1910,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,24 +1953,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
@@ -2193,30 +2198,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
